--- a/Nemes Tihamér/Versenyprogramozás feladatok.xlsx
+++ b/Nemes Tihamér/Versenyprogramozás feladatok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasgy\Desktop\Nemes Tihamér\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85306A78-15DD-4125-B11F-397B140A03F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D135019-1D43-40FF-A4DA-38D83F1D6F4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feladatok temakörönként" sheetId="1" r:id="rId1"/>
@@ -714,16 +714,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1044,10 +1044,10 @@
   <dimension ref="A1:Z1013"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A3"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1096,7 @@
       <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1108,7 +1108,7 @@
       <c r="D2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="1"/>
@@ -1134,7 +1134,7 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="D3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="1"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1168,7 +1168,7 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1180,7 +1180,7 @@
       <c r="D4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="1"/>
@@ -1206,7 +1206,7 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="D5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="1"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1240,13 +1240,13 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="1"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1270,7 +1270,7 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1282,7 +1282,7 @@
       <c r="D7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1"/>
@@ -1308,7 +1308,7 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="1"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1340,13 +1340,13 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="27"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="1"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1370,7 +1370,7 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1382,7 +1382,7 @@
       <c r="D10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="29" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="1"/>
@@ -1408,13 +1408,13 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="27"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="1"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1438,7 +1438,7 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="29" t="s">
         <v>78</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -1450,7 +1450,7 @@
       <c r="D12" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
@@ -1476,7 +1476,7 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="6" t="s">
         <v>90</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="D13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="1"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1508,7 +1508,7 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>92</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1546,7 +1546,7 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>96</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1592,7 +1592,7 @@
       <c r="D16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="29" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="1"/>
@@ -1618,7 +1618,7 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>100</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="27"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="1"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1650,7 +1650,7 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="29" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1688,7 +1688,7 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="8" t="s">
         <v>62</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="29" t="s">
         <v>109</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -1768,7 +1768,7 @@
       <c r="D21" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="29" t="s">
         <v>113</v>
       </c>
       <c r="F21" s="1"/>
@@ -1794,7 +1794,7 @@
       <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="3" t="s">
         <v>67</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="D22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="1"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1838,7 +1838,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="29" t="s">
         <v>116</v>
       </c>
       <c r="F23" s="1"/>
@@ -1870,7 +1870,7 @@
         <v>117</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="1"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1894,7 +1894,7 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="29" t="s">
         <v>118</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -1906,7 +1906,7 @@
       <c r="D25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="29" t="s">
         <v>122</v>
       </c>
       <c r="F25" s="1"/>
@@ -1932,7 +1932,7 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="D26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="1"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1966,7 +1966,7 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="6" t="s">
         <v>124</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="D27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="1"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2026,7 +2026,7 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -2038,7 +2038,7 @@
       <c r="D29" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="29" t="s">
         <v>129</v>
       </c>
       <c r="F29" s="1"/>
@@ -2064,7 +2064,7 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="23" t="s">
         <v>130</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="D30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="1"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2098,7 +2098,7 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="29" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2110,7 +2110,7 @@
       <c r="D31" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="29" t="s">
         <v>136</v>
       </c>
       <c r="F31" s="1"/>
@@ -2136,13 +2136,13 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="28"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="1"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -29635,11 +29635,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A14:A15"/>
@@ -29649,15 +29653,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -29705,7 +29705,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -29778,20 +29778,20 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="34.6640625" style="30"/>
+    <col min="1" max="16384" width="34.6640625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -29900,8 +29900,8 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29985,7 +29985,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
